--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Wolfram.Fall.121720-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Wolfram.Fall.121720-2.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5049,12 +5049,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6351,12 +6351,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6477,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
